--- a/machine-learning/data scaling.xlsx
+++ b/machine-learning/data scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder Kuliah ni\SKRIPSI SEMESTER 8\project skirpsi\end-to-end-ML-status-gizi-skripsi\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35162553-CEEB-4A6E-9F5C-50441B060B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3F44A3-1854-46F6-9D50-D287CEBB7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="1" xr2:uid="{97875038-B768-4926-A3F7-3854A156551E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="548">
   <si>
     <t>NIK</t>
   </si>
@@ -1635,6 +1635,51 @@
   <si>
     <t>Jika jumlah cost &gt; 0, maka berhenti dan cluster berada pada cluster sebelumnya</t>
   </si>
+  <si>
+    <t>TRUE POSITIVE</t>
+  </si>
+  <si>
+    <t>TRUE NEGATIVE</t>
+  </si>
+  <si>
+    <t>FALSE POSITIVE</t>
+  </si>
+  <si>
+    <t>FALSE NEGATIVE</t>
+  </si>
+  <si>
+    <t>C1 (GIZI LEBIH)</t>
+  </si>
+  <si>
+    <t>C2 (GIZI BAIK)</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>C2 GIZI BAIK)</t>
+  </si>
+  <si>
+    <t>C3 (GIZI KURANG)</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>RATA-RATA</t>
+  </si>
+  <si>
+    <t>PERHITUNGAN MANUAL</t>
+  </si>
+  <si>
+    <t>PERHITUNGAN SISTEM</t>
+  </si>
+  <si>
+    <t>C2 (GIZI KURANG)</t>
+  </si>
 </sst>
 </file>
 
@@ -1664,7 +1709,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1710,6 +1755,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,7 +1857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1838,6 +1895,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1876,7 +1943,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>635104</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>31937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,7 +1992,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>368404</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>36979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2258,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F947D4-4787-44C4-BF8E-B0A9649AC43A}">
-  <dimension ref="A1:CF255"/>
+  <dimension ref="A1:CK255"/>
   <sheetViews>
-    <sheetView topLeftCell="BV217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CA17" sqref="CA17"/>
+    <sheetView topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK30" sqref="CK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,13 +2345,17 @@
     <col min="54" max="54" width="25.85546875" customWidth="1"/>
     <col min="63" max="63" width="25.5703125" customWidth="1"/>
     <col min="72" max="72" width="26.140625" customWidth="1"/>
-    <col min="81" max="81" width="14.140625" customWidth="1"/>
+    <col min="81" max="81" width="17.7109375" customWidth="1"/>
     <col min="82" max="82" width="15.85546875" customWidth="1"/>
-    <col min="83" max="83" width="14.28515625" customWidth="1"/>
+    <col min="83" max="83" width="17.7109375" customWidth="1"/>
     <col min="84" max="84" width="15.85546875" customWidth="1"/>
+    <col min="86" max="86" width="16.7109375" customWidth="1"/>
+    <col min="87" max="87" width="17.140625" customWidth="1"/>
+    <col min="88" max="88" width="16.85546875" customWidth="1"/>
+    <col min="89" max="89" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2378,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2401,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2424,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2503,7 @@
       <c r="BW4" s="3"/>
       <c r="BX4" s="3"/>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2677,7 @@
         <v>64.23582089552238</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2851,7 @@
         <v>82.256435643564359</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2954,7 +3025,7 @@
         <v>94.852564102564102</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2976,8 +3047,20 @@
       <c r="G8" t="s">
         <v>485</v>
       </c>
+      <c r="CC8" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CD8" s="28"/>
+      <c r="CE8" s="28"/>
+      <c r="CF8" s="28"/>
+      <c r="CH8" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CI8" s="28"/>
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3123,12 +3206,32 @@
       <c r="CA9" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23"/>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
+      <c r="CC9" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="CD9" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="CE9" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="CF9" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="CH9" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="CI9" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="CJ9" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="CK9" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="10" spans="1:84" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3340,16 +3443,36 @@
         <f ca="1">IF(BW10=BZ10,$J$10,IF(BX10=BZ10,$J$11,IF(BY10=BZ10,$J$12,"")))</f>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" s="33">
         <f ca="1">COUNTIFS($G$2:$G$247,"GIZI LEBIH",$CA$10:$CA$255,"GIZI LEBIH")</f>
         <v>62</v>
       </c>
-      <c r="CD10" s="24">
+      <c r="CD10" s="34">
         <f ca="1">COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI LEBIH",$CA$10:$CA$255,"&lt;&gt;GIZI LEBIH")</f>
         <v>169</v>
       </c>
+      <c r="CE10" s="33">
+        <f ca="1">COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI LEBIH",$CA$10:$CA$255,"GIZI LEBIH")</f>
+        <v>5</v>
+      </c>
+      <c r="CF10" s="33">
+        <f ca="1">COUNTIFS($G$2:$G$247,"GIZI LEBIH",$CA$10:$CA$255,"&lt;&gt;GIZI LEBIH")</f>
+        <v>10</v>
+      </c>
+      <c r="CH10" s="33">
+        <v>62</v>
+      </c>
+      <c r="CI10" s="34">
+        <v>169</v>
+      </c>
+      <c r="CJ10" s="33">
+        <v>5</v>
+      </c>
+      <c r="CK10" s="33">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:84" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3562,8 +3685,9 @@
         <v>Gizi Lebih</v>
       </c>
       <c r="CD11" s="24"/>
+      <c r="CI11" s="24"/>
     </row>
-    <row r="12" spans="1:84" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3775,9 +3899,20 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD12" s="24"/>
+      <c r="CC12" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="CD12" s="28"/>
+      <c r="CE12" s="28"/>
+      <c r="CF12" s="28"/>
+      <c r="CH12" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="CI12" s="28"/>
+      <c r="CJ12" s="28"/>
+      <c r="CK12" s="28"/>
     </row>
-    <row r="13" spans="1:84" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3983,9 +4118,32 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD13" s="24"/>
+      <c r="CC13" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="CD13" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="CE13" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="CF13" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="CH13" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="CI13" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="CJ13" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="CK13" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="14" spans="1:84" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4191,9 +4349,36 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD14" s="24"/>
+      <c r="CC14">
+        <f ca="1">COUNTIFS($G$2:$G$247,"GIZI BAIK",$CA$10:$CA$255,"GIZI BAIK")</f>
+        <v>56</v>
+      </c>
+      <c r="CD14" s="26">
+        <f ca="1">COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI BAIK",$CA$10:$CA$255,"&lt;&gt;GIZI BAIK")</f>
+        <v>111</v>
+      </c>
+      <c r="CE14">
+        <f ca="1">COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI BAIK",$CA$10:$CA$255,"GIZI BAIK")</f>
+        <v>45</v>
+      </c>
+      <c r="CF14">
+        <f ca="1">COUNTIFS($G$2:$G$247,"GIZI BAIK",$CA$10:$CA$255,"&lt;&gt;GIZI BAIK")</f>
+        <v>34</v>
+      </c>
+      <c r="CH14">
+        <v>56</v>
+      </c>
+      <c r="CI14" s="26">
+        <v>111</v>
+      </c>
+      <c r="CJ14">
+        <v>45</v>
+      </c>
+      <c r="CK14">
+        <v>34</v>
+      </c>
     </row>
-    <row r="15" spans="1:84" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4403,8 +4588,9 @@
         <v>Gizi Lebih</v>
       </c>
       <c r="CD15" s="24"/>
+      <c r="CI15" s="24"/>
     </row>
-    <row r="16" spans="1:84" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4610,9 +4796,20 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD16" s="24"/>
+      <c r="CC16" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="CD16" s="28"/>
+      <c r="CE16" s="28"/>
+      <c r="CF16" s="28"/>
+      <c r="CH16" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="CI16" s="28"/>
+      <c r="CJ16" s="28"/>
+      <c r="CK16" s="28"/>
     </row>
-    <row r="17" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4818,9 +5015,32 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD17" s="24"/>
+      <c r="CC17" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="CD17" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="CE17" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="CF17" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="CH17" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="CI17" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="CJ17" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="CK17" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5026,9 +5246,36 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD18" s="24"/>
+      <c r="CC18">
+        <f ca="1">COUNTIFS($G$2:$G$247,"GIZI KURANG",$CA$10:$CA$255,"GIZI KURANG")</f>
+        <v>46</v>
+      </c>
+      <c r="CD18" s="26">
+        <f ca="1">COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI KURANG",$CA$10:$CA$255,"&lt;&gt;GIZI KURANG")</f>
+        <v>130</v>
+      </c>
+      <c r="CE18">
+        <f ca="1">COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI KURANG",$CA$10:$CA$255,"GIZI KURANG")</f>
+        <v>32</v>
+      </c>
+      <c r="CF18">
+        <f ca="1">COUNTIFS($G$2:$G$247,"GIZI KURANG",$CA$10:$CA$255,"&lt;&gt;GIZI KURANG")</f>
+        <v>38</v>
+      </c>
+      <c r="CH18">
+        <v>46</v>
+      </c>
+      <c r="CI18" s="26">
+        <v>130</v>
+      </c>
+      <c r="CJ18">
+        <v>32</v>
+      </c>
+      <c r="CK18">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5235,8 +5482,9 @@
         <v>Gizi Lebih</v>
       </c>
       <c r="CD19" s="24"/>
+      <c r="CI19" s="24"/>
     </row>
-    <row r="20" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5442,9 +5690,18 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="CC20" s="29" t="s">
+        <v>539</v>
+      </c>
       <c r="CD20" s="24"/>
+      <c r="CE20" s="28"/>
+      <c r="CH20" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="CI20" s="24"/>
+      <c r="CJ20" s="28"/>
     </row>
-    <row r="21" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5650,9 +5907,32 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD21" s="24"/>
+      <c r="CC21" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CD21" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="CE21" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="CF21" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="CH21" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CI21" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="CJ21" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="CK21" s="29" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="22" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5858,9 +6138,40 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD22" s="24"/>
+      <c r="CC22" s="27">
+        <f ca="1">(CC10+CD10)/(CC10+CD10+CE10+CF10)</f>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="CD22" s="27">
+        <f ca="1">(CC14+CD14)/(CC14+CD14+CE14+CF14)</f>
+        <v>0.67886178861788615</v>
+      </c>
+      <c r="CE22" s="27">
+        <f ca="1">(CC18+CD18)/(CC18+CD18+CE18+CF18)</f>
+        <v>0.71544715447154472</v>
+      </c>
+      <c r="CF22" s="25">
+        <f ca="1">(CC22+CD22+CE22)/3</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="CH22" s="27">
+        <f>(CH10+CI10)/(CH10+CI10+CJ10+CK10)</f>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="CI22" s="27">
+        <f>(CH14+CI14)/(CH14+CI14+CJ14+CK14)</f>
+        <v>0.67886178861788615</v>
+      </c>
+      <c r="CJ22" s="27">
+        <f>(CH18+CI18)/(CH18+CI18+CJ18+CK18)</f>
+        <v>0.71544715447154472</v>
+      </c>
+      <c r="CK22" s="25">
+        <f>(CH22+CI22+CJ22)/3</f>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
-    <row r="23" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6067,8 +6378,9 @@
         <v>Gizi Lebih</v>
       </c>
       <c r="CD23" s="24"/>
+      <c r="CI23" s="24"/>
     </row>
-    <row r="24" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6274,9 +6586,18 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="CC24" s="29" t="s">
+        <v>542</v>
+      </c>
       <c r="CD24" s="24"/>
+      <c r="CE24" s="28"/>
+      <c r="CH24" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="CI24" s="24"/>
+      <c r="CJ24" s="28"/>
     </row>
-    <row r="25" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6482,9 +6803,32 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD25" s="24"/>
+      <c r="CC25" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CD25" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="CE25" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="CF25" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="CH25" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CI25" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="CJ25" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="CK25" s="29" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="26" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6690,9 +7034,40 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD26" s="24"/>
+      <c r="CC26" s="27">
+        <f ca="1">CC10/(CC10+CE10)</f>
+        <v>0.92537313432835822</v>
+      </c>
+      <c r="CD26" s="27">
+        <f ca="1">CC14/(CC14+CE14)</f>
+        <v>0.5544554455445545</v>
+      </c>
+      <c r="CE26" s="27">
+        <f ca="1">CC18/(CC18+CE18)</f>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="CF26" s="25">
+        <f ca="1">(CC26+CD26+CE26)/3</f>
+        <v>0.68985738987216749</v>
+      </c>
+      <c r="CH26" s="27">
+        <f>CH10/(CH10+CJ10)</f>
+        <v>0.92537313432835822</v>
+      </c>
+      <c r="CI26" s="27">
+        <f>CH14/(CH14+CJ14)</f>
+        <v>0.5544554455445545</v>
+      </c>
+      <c r="CJ26" s="27">
+        <f>CH18/(CH18+CJ18)</f>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="CK26" s="25">
+        <f>(CH26+CI26+CJ26)/3</f>
+        <v>0.68985738987216749</v>
+      </c>
     </row>
-    <row r="27" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6899,8 +7274,9 @@
         <v>Gizi Lebih</v>
       </c>
       <c r="CD27" s="24"/>
+      <c r="CI27" s="24"/>
     </row>
-    <row r="28" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -7106,9 +7482,18 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Kurang</v>
       </c>
+      <c r="CC28" s="29" t="s">
+        <v>543</v>
+      </c>
       <c r="CD28" s="24"/>
+      <c r="CE28" s="28"/>
+      <c r="CH28" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="CI28" s="24"/>
+      <c r="CJ28" s="28"/>
     </row>
-    <row r="29" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -7314,9 +7699,32 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD29" s="24"/>
+      <c r="CC29" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CD29" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="CE29" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="CF29" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="CH29" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="CI29" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="CJ29" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="CK29" s="29" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="30" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -7522,9 +7930,40 @@
         <f t="shared" ca="1" si="39"/>
         <v>Gizi Lebih</v>
       </c>
-      <c r="CD30" s="24"/>
+      <c r="CC30" s="27">
+        <f ca="1">CC10/(CC10+CF10)</f>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="CD30" s="27">
+        <f ca="1">CC14/(CC14+CF14)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="CE30" s="27">
+        <f ca="1">CC18/(CC18+CF18)</f>
+        <v>0.54761904761904767</v>
+      </c>
+      <c r="CF30" s="25">
+        <f ca="1">(CC30+CD30+CE30)/3</f>
+        <v>0.67698412698412691</v>
+      </c>
+      <c r="CH30" s="27">
+        <f>CH10/(CH10+CK10)</f>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="CI30" s="27">
+        <f>CH14/(CH14+CK14)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="CJ30" s="27">
+        <f>CH18/(CH18+CK18)</f>
+        <v>0.54761904761904767</v>
+      </c>
+      <c r="CK30" s="25">
+        <f>(CH30+CI30+CJ30)/3</f>
+        <v>0.67698412698412691</v>
+      </c>
     </row>
-    <row r="31" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7732,7 +8171,7 @@
       </c>
       <c r="CD31" s="24"/>
     </row>
-    <row r="32" spans="1:82" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:89" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -43326,184 +43765,184 @@
         <v>194</v>
       </c>
       <c r="L203">
-        <f t="shared" ref="L203:L256" si="120">SQRT((C195-$J$5)^2+(D195-$K$5)^2+(E195-$L$5)^2+(F195-$M$5)^2)</f>
+        <f t="shared" ref="L203:L255" si="120">SQRT((C195-$J$5)^2+(D195-$K$5)^2+(E195-$L$5)^2+(F195-$M$5)^2)</f>
         <v>26.391854804086808</v>
       </c>
       <c r="M203">
-        <f t="shared" ref="M203:M256" si="121">SQRT((C195-$J$6)^2+(D195-$K$6)^2+(E195-$L$6)^2+(F195-$M$6)^2)</f>
+        <f t="shared" ref="M203:M255" si="121">SQRT((C195-$J$6)^2+(D195-$K$6)^2+(E195-$L$6)^2+(F195-$M$6)^2)</f>
         <v>1.7720045146669348</v>
       </c>
       <c r="N203">
-        <f t="shared" ref="N203:N256" si="122">SQRT((C195-$J$7)^2+(D195-$K$7)^2+(E195-$L$7)^2+(F195-$M$7)^2)</f>
+        <f t="shared" ref="N203:N255" si="122">SQRT((C195-$J$7)^2+(D195-$K$7)^2+(E195-$L$7)^2+(F195-$M$7)^2)</f>
         <v>8.2322536404073432</v>
       </c>
       <c r="O203">
-        <f t="shared" ref="O203:O256" si="123">MIN(L203:N203)</f>
+        <f t="shared" ref="O203:O255" si="123">MIN(L203:N203)</f>
         <v>1.7720045146669348</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" ref="P203:P256" si="124">IF(L203=O203,$J$10,IF(M203=O203,$J$11,IF(N203=O203,$J$12,"")))</f>
+        <f t="shared" ref="P203:P255" si="124">IF(L203=O203,$J$10,IF(M203=O203,$J$11,IF(N203=O203,$J$12,"")))</f>
         <v>Gizi Baik</v>
       </c>
       <c r="T203">
         <v>194</v>
       </c>
       <c r="U203">
-        <f t="shared" ref="U203:U256" ca="1" si="125">SQRT((C195-$S$5)^2+(D195-$T$5)^2+(E195-$U$5)^2+(F195-$V$5)^2)</f>
+        <f t="shared" ref="U203:U255" ca="1" si="125">SQRT((C195-$S$5)^2+(D195-$T$5)^2+(E195-$U$5)^2+(F195-$V$5)^2)</f>
         <v>24.881813977766914</v>
       </c>
       <c r="V203">
-        <f t="shared" ref="V203:V256" ca="1" si="126">SQRT((C195-$S$6)^2+(D195-$T$6)^2+(E195-$U$6)^2+(F195-$V$6)^2)</f>
+        <f t="shared" ref="V203:V255" ca="1" si="126">SQRT((C195-$S$6)^2+(D195-$T$6)^2+(E195-$U$6)^2+(F195-$V$6)^2)</f>
         <v>4.969645395800403</v>
       </c>
       <c r="W203">
-        <f t="shared" ref="W203:W256" ca="1" si="127">SQRT((C195-$S$7)^2+(D195-$T$7)^2+(E195-$U$7)^2+(F195-$V$7)^2)</f>
+        <f t="shared" ref="W203:W255" ca="1" si="127">SQRT((C195-$S$7)^2+(D195-$T$7)^2+(E195-$U$7)^2+(F195-$V$7)^2)</f>
         <v>6.8964344817620402</v>
       </c>
       <c r="X203">
-        <f t="shared" ref="X203:X256" ca="1" si="128">MIN(U203:W203)</f>
+        <f t="shared" ref="X203:X255" ca="1" si="128">MIN(U203:W203)</f>
         <v>4.969645395800403</v>
       </c>
       <c r="Y203" t="str">
-        <f t="shared" ref="Y203:Y256" ca="1" si="129">IF(U203=X203,$J$10,IF(V203=X203,$J$11,IF(W203=X203,$J$12,"")))</f>
+        <f t="shared" ref="Y203:Y255" ca="1" si="129">IF(U203=X203,$J$10,IF(V203=X203,$J$11,IF(W203=X203,$J$12,"")))</f>
         <v>Gizi Baik</v>
       </c>
       <c r="AC203">
         <v>194</v>
       </c>
       <c r="AD203">
-        <f t="shared" ref="AD203:AD256" ca="1" si="130">SQRT((C195-$AB$5)^2+(D195-$AC$5)^2+(E195-$AD$5)^2+(F195-$AE$5)^2)</f>
+        <f t="shared" ref="AD203:AD255" ca="1" si="130">SQRT((C195-$AB$5)^2+(D195-$AC$5)^2+(E195-$AD$5)^2+(F195-$AE$5)^2)</f>
         <v>25.640072293054828</v>
       </c>
       <c r="AE203">
-        <f t="shared" ref="AE203:AE256" ca="1" si="131">SQRT((C195-$AB$6)^2+(D195-$AC$6)^2+(E195-$AD$6)^2+(F195-$AE$6)^2)</f>
+        <f t="shared" ref="AE203:AE255" ca="1" si="131">SQRT((C195-$AB$6)^2+(D195-$AC$6)^2+(E195-$AD$6)^2+(F195-$AE$6)^2)</f>
         <v>6.6634453181258193</v>
       </c>
       <c r="AF203">
-        <f t="shared" ref="AF203:AF256" ca="1" si="132">SQRT((C195-$AB$7)^2+(D195-$AC$7)^2+(E195-$AD$7)^2+(F195-$AE$7)^2)</f>
+        <f t="shared" ref="AF203:AF255" ca="1" si="132">SQRT((C195-$AB$7)^2+(D195-$AC$7)^2+(E195-$AD$7)^2+(F195-$AE$7)^2)</f>
         <v>5.1594266309079515</v>
       </c>
       <c r="AG203">
-        <f t="shared" ref="AG203:AG256" ca="1" si="133">MIN(AD203:AF203)</f>
+        <f t="shared" ref="AG203:AG255" ca="1" si="133">MIN(AD203:AF203)</f>
         <v>5.1594266309079515</v>
       </c>
       <c r="AH203" t="str">
-        <f t="shared" ref="AH203:AH256" ca="1" si="134">IF(AD203=AG203,$J$10,IF(AE203=AG203,$J$11,IF(AF203=AG203,$J$12,"")))</f>
+        <f t="shared" ref="AH203:AH255" ca="1" si="134">IF(AD203=AG203,$J$10,IF(AE203=AG203,$J$11,IF(AF203=AG203,$J$12,"")))</f>
         <v>Gizi Kurang</v>
       </c>
       <c r="AL203">
         <v>194</v>
       </c>
       <c r="AM203">
-        <f t="shared" ref="AM203:AM256" ca="1" si="135">SQRT((C195-$AK$5)^2+(D195-$AL$5)^2+(E195-$AM$5)^2+(F195-$AN$5)^2)</f>
+        <f t="shared" ref="AM203:AM255" ca="1" si="135">SQRT((C195-$AK$5)^2+(D195-$AL$5)^2+(E195-$AM$5)^2+(F195-$AN$5)^2)</f>
         <v>26.548478450932095</v>
       </c>
       <c r="AN203">
-        <f t="shared" ref="AN203:AN256" ca="1" si="136">SQRT((C195-$AK$6)^2+(D195-$AL$6)^2+(E195-$AM$6)^2+(F195-$AN$6)^2)</f>
+        <f t="shared" ref="AN203:AN255" ca="1" si="136">SQRT((C195-$AK$6)^2+(D195-$AL$6)^2+(E195-$AM$6)^2+(F195-$AN$6)^2)</f>
         <v>7.9163338678154505</v>
       </c>
       <c r="AO203">
-        <f t="shared" ref="AO203:AO256" ca="1" si="137">SQRT((C195-$AK$7)^2+(D195-$AL$7)^2+(E195-$AM$7)^2+(F195-$AN$7)^2)</f>
+        <f t="shared" ref="AO203:AO255" ca="1" si="137">SQRT((C195-$AK$7)^2+(D195-$AL$7)^2+(E195-$AM$7)^2+(F195-$AN$7)^2)</f>
         <v>4.2866578146342249</v>
       </c>
       <c r="AP203">
-        <f t="shared" ref="AP203:AP256" ca="1" si="138">MIN(AM203:AO203)</f>
+        <f t="shared" ref="AP203:AP255" ca="1" si="138">MIN(AM203:AO203)</f>
         <v>4.2866578146342249</v>
       </c>
       <c r="AQ203" t="str">
-        <f t="shared" ref="AQ203:AQ256" ca="1" si="139">IF(AM203=AP203,$J$10,IF(AN203=AP203,$J$11,IF(AO203=AP203,$J$12,"")))</f>
+        <f t="shared" ref="AQ203:AQ255" ca="1" si="139">IF(AM203=AP203,$J$10,IF(AN203=AP203,$J$11,IF(AO203=AP203,$J$12,"")))</f>
         <v>Gizi Kurang</v>
       </c>
       <c r="AU203">
         <v>194</v>
       </c>
       <c r="AV203">
-        <f t="shared" ref="AV203:AV256" ca="1" si="140">SQRT((C195-$AT$5)^2+(D195-$AU$5)^2+(E195-$AV$5)^2+(F195-$AW$5)^2)</f>
+        <f t="shared" ref="AV203:AV255" ca="1" si="140">SQRT((C195-$AT$5)^2+(D195-$AU$5)^2+(E195-$AV$5)^2+(F195-$AW$5)^2)</f>
         <v>27.682329576099086</v>
       </c>
       <c r="AW203">
-        <f t="shared" ref="AW203:AW256" ca="1" si="141">SQRT((C195-$AT$6)^2+(D195-$AU$6)^2+(E195-$AV$6)^2+(F195-$AW$6)^2)</f>
+        <f t="shared" ref="AW203:AW255" ca="1" si="141">SQRT((C195-$AT$6)^2+(D195-$AU$6)^2+(E195-$AV$6)^2+(F195-$AW$6)^2)</f>
         <v>9.1096045331635445</v>
       </c>
       <c r="AX203">
-        <f t="shared" ref="AX203:AX256" ca="1" si="142">SQRT((C195-$AT$7)^2+(D195-$AU$7)^2+(E195-$AV$7)^2+(F195-$AW$7)^2)</f>
+        <f t="shared" ref="AX203:AX255" ca="1" si="142">SQRT((C195-$AT$7)^2+(D195-$AU$7)^2+(E195-$AV$7)^2+(F195-$AW$7)^2)</f>
         <v>3.6051196895219242</v>
       </c>
       <c r="AY203">
-        <f t="shared" ref="AY203:AY256" ca="1" si="143">MIN(AV203:AX203)</f>
+        <f t="shared" ref="AY203:AY255" ca="1" si="143">MIN(AV203:AX203)</f>
         <v>3.6051196895219242</v>
       </c>
       <c r="AZ203" t="str">
-        <f t="shared" ref="AZ203:AZ256" ca="1" si="144">IF(AV203=AY203,$J$10,IF(AW203=AY203,$J$11,IF(AX203=AY203,$J$12,"")))</f>
+        <f t="shared" ref="AZ203:AZ255" ca="1" si="144">IF(AV203=AY203,$J$10,IF(AW203=AY203,$J$11,IF(AX203=AY203,$J$12,"")))</f>
         <v>Gizi Kurang</v>
       </c>
       <c r="BD203">
         <v>194</v>
       </c>
       <c r="BE203">
-        <f t="shared" ref="BE203:BE256" ca="1" si="145">SQRT((C195-$BC$5)^2+(D195-$BD$5)^2+(E195-$BE$5)^2+(F195-$BF$5)^2)</f>
+        <f t="shared" ref="BE203:BE255" ca="1" si="145">SQRT((C195-$BC$5)^2+(D195-$BD$5)^2+(E195-$BE$5)^2+(F195-$BF$5)^2)</f>
         <v>27.818487686120854</v>
       </c>
       <c r="BF203">
-        <f t="shared" ref="BF203:BF256" ca="1" si="146">SQRT((C195-$BC$6)^2+(D195-$BD$6)^2+(E195-$BE$6)^2+(F195-$BF$6)^2)</f>
+        <f t="shared" ref="BF203:BF255" ca="1" si="146">SQRT((C195-$BC$6)^2+(D195-$BD$6)^2+(E195-$BE$6)^2+(F195-$BF$6)^2)</f>
         <v>9.5914460420735725</v>
       </c>
       <c r="BG203">
-        <f t="shared" ref="BG203:BG256" ca="1" si="147">SQRT((C195-$BC$7)^2+(D195-$BD$7)^2+(E195-$BE$7)^2+(F195-$BF$7)^2)</f>
+        <f t="shared" ref="BG203:BG255" ca="1" si="147">SQRT((C195-$BC$7)^2+(D195-$BD$7)^2+(E195-$BE$7)^2+(F195-$BF$7)^2)</f>
         <v>3.1352848286723303</v>
       </c>
       <c r="BH203">
-        <f t="shared" ref="BH203:BH256" ca="1" si="148">MIN(BE203:BG203)</f>
+        <f t="shared" ref="BH203:BH255" ca="1" si="148">MIN(BE203:BG203)</f>
         <v>3.1352848286723303</v>
       </c>
       <c r="BI203" t="str">
-        <f t="shared" ref="BI203:BI256" ca="1" si="149">IF(BE203=BH203,$J$10,IF(BF203=BH203,$J$11,IF(BG203=BH203,$J$12,"")))</f>
+        <f t="shared" ref="BI203:BI255" ca="1" si="149">IF(BE203=BH203,$J$10,IF(BF203=BH203,$J$11,IF(BG203=BH203,$J$12,"")))</f>
         <v>Gizi Kurang</v>
       </c>
       <c r="BM203">
         <v>194</v>
       </c>
       <c r="BN203">
-        <f t="shared" ref="BN203:BN256" ca="1" si="150">SQRT((C195-$BL$5)^2+(D195-$BM$5)^2+(E195-$BN$5)^2+(F195-$BO$5)^2)</f>
+        <f t="shared" ref="BN203:BN255" ca="1" si="150">SQRT((C195-$BL$5)^2+(D195-$BM$5)^2+(E195-$BN$5)^2+(F195-$BO$5)^2)</f>
         <v>27.954731199375207</v>
       </c>
       <c r="BO203">
-        <f t="shared" ref="BO203:BO256" ca="1" si="151">SQRT((C195-$BL$6)^2+(D195-$BM$6)^2+(E195-$BN$6)^2+(F195-$BO$6)^2)</f>
+        <f t="shared" ref="BO203:BO255" ca="1" si="151">SQRT((C195-$BL$6)^2+(D195-$BM$6)^2+(E195-$BN$6)^2+(F195-$BO$6)^2)</f>
         <v>9.9493283583448555</v>
       </c>
       <c r="BP203">
-        <f t="shared" ref="BP203:BP256" ca="1" si="152">SQRT((C195-$BL$7)^2+(D195-$BM$7)^2+(E195-$BN$7)^2+(F195-$BO$7)^2)</f>
+        <f t="shared" ref="BP203:BP255" ca="1" si="152">SQRT((C195-$BL$7)^2+(D195-$BM$7)^2+(E195-$BN$7)^2+(F195-$BO$7)^2)</f>
         <v>2.8323304293019058</v>
       </c>
       <c r="BQ203">
-        <f t="shared" ref="BQ203:BQ256" ca="1" si="153">MIN(BN203:BP203)</f>
+        <f t="shared" ref="BQ203:BQ255" ca="1" si="153">MIN(BN203:BP203)</f>
         <v>2.8323304293019058</v>
       </c>
       <c r="BR203" t="str">
-        <f t="shared" ref="BR203:BR256" ca="1" si="154">IF(BN203=BQ203,$J$10,IF(BO203=BQ203,$J$11,IF(BP203=BQ203,$J$12,"")))</f>
+        <f t="shared" ref="BR203:BR255" ca="1" si="154">IF(BN203=BQ203,$J$10,IF(BO203=BQ203,$J$11,IF(BP203=BQ203,$J$12,"")))</f>
         <v>Gizi Kurang</v>
       </c>
       <c r="BV203">
         <v>194</v>
       </c>
       <c r="BW203">
-        <f t="shared" ref="BW203:BW256" ca="1" si="155">SQRT((C195-$BU$5)^2+(D195-$BV$5)^2+(E195-$BW$5)^2+(F195-$BX$5)^2)</f>
+        <f t="shared" ref="BW203:BW255" ca="1" si="155">SQRT((C195-$BU$5)^2+(D195-$BV$5)^2+(E195-$BW$5)^2+(F195-$BX$5)^2)</f>
         <v>28.226088376675488</v>
       </c>
       <c r="BX203">
-        <f t="shared" ref="BX203:BX256" ca="1" si="156">SQRT((C195-$BU$6)^2+(D195-$BV$6)^2+(E195-$BW$6)^2+(F195-$BX$6)^2)</f>
+        <f t="shared" ref="BX203:BX255" ca="1" si="156">SQRT((C195-$BU$6)^2+(D195-$BV$6)^2+(E195-$BW$6)^2+(F195-$BX$6)^2)</f>
         <v>10.125883289903401</v>
       </c>
       <c r="BY203">
-        <f t="shared" ref="BY203:BY256" ca="1" si="157">SQRT((C195-$BU$7)^2+(D195-$BV$7)^2+(E195-$BW$7)^2+(F195-$BX$7)^2)</f>
+        <f t="shared" ref="BY203:BY255" ca="1" si="157">SQRT((C195-$BU$7)^2+(D195-$BV$7)^2+(E195-$BW$7)^2+(F195-$BX$7)^2)</f>
         <v>2.8323304293019058</v>
       </c>
       <c r="BZ203">
-        <f t="shared" ref="BZ203:BZ256" ca="1" si="158">MIN(BW203:BY203)</f>
+        <f t="shared" ref="BZ203:BZ255" ca="1" si="158">MIN(BW203:BY203)</f>
         <v>2.8323304293019058</v>
       </c>
       <c r="CA203" t="str">
-        <f t="shared" ref="CA203:CA256" ca="1" si="159">IF(BW203=BZ203,$J$10,IF(BX203=BZ203,$J$11,IF(BY203=BZ203,$J$12,"")))</f>
+        <f t="shared" ref="CA203:CA255" ca="1" si="159">IF(BW203=BZ203,$J$10,IF(BX203=BZ203,$J$11,IF(BY203=BZ203,$J$12,"")))</f>
         <v>Gizi Kurang</v>
       </c>
       <c r="CD203" s="24"/>
@@ -54165,10 +54604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82065DC9-375C-46B7-BDE1-10D0C7852F6D}">
-  <dimension ref="A1:AQ263"/>
+  <dimension ref="A1:BA263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI241" sqref="AI241"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54180,9 +54619,16 @@
     <col min="18" max="18" width="25" customWidth="1"/>
     <col min="27" max="27" width="27.42578125" customWidth="1"/>
     <col min="36" max="36" width="30.42578125" customWidth="1"/>
+    <col min="45" max="45" width="17.85546875" customWidth="1"/>
+    <col min="46" max="47" width="16.85546875" customWidth="1"/>
+    <col min="48" max="48" width="18" customWidth="1"/>
+    <col min="50" max="50" width="17.85546875" customWidth="1"/>
+    <col min="51" max="51" width="17" customWidth="1"/>
+    <col min="52" max="52" width="16.85546875" customWidth="1"/>
+    <col min="53" max="53" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -54205,7 +54651,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -54228,7 +54674,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -54251,7 +54697,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -54302,7 +54748,7 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -54394,7 +54840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -54485,8 +54931,14 @@
       <c r="AN6" s="5">
         <v>95</v>
       </c>
+      <c r="AS6" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX6" s="28" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -54578,7 +55030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54600,8 +55052,20 @@
       <c r="G8" t="s">
         <v>485</v>
       </c>
+      <c r="AS8" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AX8" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -54687,8 +55151,32 @@
       <c r="AQ9" s="9" t="s">
         <v>507</v>
       </c>
+      <c r="AS9" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="AT9" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU9" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="AV9" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="AX9" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="AY9" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="AZ9" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="BA9" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -54808,8 +55296,36 @@
         <f>IF(AM10=AP10,$J$10,IF(AN10=AP10,$J$11,IF(AO10=AP10,$J$12,"")))</f>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS10">
+        <f>COUNTIFS($G$2:$G$247,"GIZI LEBIH",$AH$10:$AH$255,"GIZI LEBIH")</f>
+        <v>63</v>
+      </c>
+      <c r="AT10" s="26">
+        <f>COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI LEBIH",$AH$10:$AH$255,"&lt;&gt;GIZI LEBIH")</f>
+        <v>168</v>
+      </c>
+      <c r="AU10">
+        <f>COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI LEBIH",$AH$10:$AH$255,"GIZI LEBIH")</f>
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <f>COUNTIFS($G$2:$G$247,"GIZI LEBIH",$AH$10:$AH$255,"&lt;&gt;GIZI LEBIH")</f>
+        <v>9</v>
+      </c>
+      <c r="AX10">
+        <v>63</v>
+      </c>
+      <c r="AY10" s="26">
+        <v>169</v>
+      </c>
+      <c r="AZ10">
+        <v>5</v>
+      </c>
+      <c r="BA10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -54929,8 +55445,10 @@
         <f t="shared" ref="AQ11:AQ74" si="19">IF(AM11=AP11,$J$10,IF(AN11=AP11,$J$11,IF(AO11=AP11,$J$12,"")))</f>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AT11" s="24"/>
+      <c r="AY11" s="24"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -55050,8 +55568,20 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS12" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AX12" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -55165,8 +55695,32 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS13" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="AT13" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU13" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="AV13" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="AX13" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="AY13" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="AZ13" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="BA13" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -55280,8 +55834,36 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS14">
+        <f>COUNTIFS($G$2:$G$247,"GIZI BAIK",$AH$10:$AH$255,"GIZI BAIK")</f>
+        <v>28</v>
+      </c>
+      <c r="AT14" s="26">
+        <f>COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI BAIK",$AH$10:$AH$255,"&lt;&gt;GIZI BAIK")</f>
+        <v>115</v>
+      </c>
+      <c r="AU14">
+        <f>COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI BAIK",$AH$10:$AH$255,"GIZI BAIK")</f>
+        <v>41</v>
+      </c>
+      <c r="AV14">
+        <f>COUNTIFS($G$2:$G$247,"GIZI BAIK",$AH$10:$AH$255,"&lt;&gt;GIZI BAIK")</f>
+        <v>62</v>
+      </c>
+      <c r="AX14">
+        <v>31</v>
+      </c>
+      <c r="AY14" s="26">
+        <v>109</v>
+      </c>
+      <c r="AZ14">
+        <v>47</v>
+      </c>
+      <c r="BA14">
+        <v>59</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -55398,8 +55980,10 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AT15" s="24"/>
+      <c r="AY15" s="24"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -55513,8 +56097,20 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS16" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AX16" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -55628,8 +56224,32 @@
         <f t="shared" si="19"/>
         <v>Gizi Kurang</v>
       </c>
+      <c r="AS17" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="AT17" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU17" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="AV17" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="AX17" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="AY17" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="AZ17" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="BA17" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -55743,8 +56363,36 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS18">
+        <f>COUNTIFS($G$2:$G$247,"GIZI KURANG",$AH$10:$AH$255,"GIZI KURANG")</f>
+        <v>42</v>
+      </c>
+      <c r="AT18" s="26">
+        <f>COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI KURANG",$AH$10:$AH$255,"&lt;&gt;GIZI KURANG")</f>
+        <v>96</v>
+      </c>
+      <c r="AU18">
+        <f>COUNTIFS($G$2:$G$247,"&lt;&gt;GIZI KURANG",$AH$10:$AH$255,"GIZI KURANG")</f>
+        <v>66</v>
+      </c>
+      <c r="AV18">
+        <f>COUNTIFS($G$2:$G$247,"GIZI KURANG",$AH$10:$AH$255,"&lt;&gt;GIZI KURANG")</f>
+        <v>42</v>
+      </c>
+      <c r="AX18">
+        <v>36</v>
+      </c>
+      <c r="AY18" s="26">
+        <v>98</v>
+      </c>
+      <c r="AZ18">
+        <v>64</v>
+      </c>
+      <c r="BA18">
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -55858,8 +56506,10 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AT19" s="24"/>
+      <c r="AY19" s="24"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -55973,8 +56623,18 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS20" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="28"/>
+      <c r="AX20" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="28"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -56088,8 +56748,32 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS21" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT21" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="AU21" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV21" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="AX21" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AY21" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="AZ21" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="BA21" s="29" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -56203,8 +56887,40 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS22" s="27">
+        <f>(AS10+AT10)/(AS10+AT10+AU10+AV10)</f>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="AT22" s="27">
+        <f>(AS14+AT14)/(AS14+AT14+AU14+AV14)</f>
+        <v>0.58130081300813008</v>
+      </c>
+      <c r="AU22" s="27">
+        <f>(AS18+AT18)/(AS18+AT18+AU18+AV18)</f>
+        <v>0.56097560975609762</v>
+      </c>
+      <c r="AV22" s="25">
+        <f>(AS22+AT22+AU22)/3</f>
+        <v>0.69376693766937658</v>
+      </c>
+      <c r="AX22" s="27">
+        <f>(AX10+AY10)/(AX10+AY10+AZ10+BA10)</f>
+        <v>0.94308943089430897</v>
+      </c>
+      <c r="AY22" s="27">
+        <f>(AX14+AY14)/(AX14+AY14+AZ14+BA14)</f>
+        <v>0.56910569105691056</v>
+      </c>
+      <c r="AZ22" s="27">
+        <f>(AX18+AY18)/(AX18+AY18+AZ18+BA18)</f>
+        <v>0.54471544715447151</v>
+      </c>
+      <c r="BA22" s="25">
+        <f>(AX22+AY22+AZ22)/3</f>
+        <v>0.68563685636856364</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -56318,8 +57034,10 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AT23" s="24"/>
+      <c r="AY23" s="24"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -56433,8 +57151,18 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS24" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="AT24" s="24"/>
+      <c r="AU24" s="28"/>
+      <c r="AX24" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="28"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -56548,8 +57276,32 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS25" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT25" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="AU25" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV25" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="AX25" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AY25" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="AZ25" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="BA25" s="29" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -56663,8 +57415,40 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS26" s="27">
+        <f>AS10/(AS10+AU10)</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AT26" s="27">
+        <f>AS14/(AS14+AU14)</f>
+        <v>0.40579710144927539</v>
+      </c>
+      <c r="AU26" s="27">
+        <f>AS18/(AS18+AU18)</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AV26" s="25">
+        <f>(AS26+AT26+AU26)/3</f>
+        <v>0.56924315619967791</v>
+      </c>
+      <c r="AX26" s="27">
+        <f>AX10/(AX10+AZ10)</f>
+        <v>0.92647058823529416</v>
+      </c>
+      <c r="AY26" s="27">
+        <f>AX14/(AX14+AZ14)</f>
+        <v>0.39743589743589741</v>
+      </c>
+      <c r="AZ26" s="27">
+        <f>AX18/(AX18+AZ18)</f>
+        <v>0.36</v>
+      </c>
+      <c r="BA26" s="25">
+        <f>(AX26+AY26+AZ26)/3</f>
+        <v>0.56130216189039717</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -56778,8 +57562,10 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AT27" s="24"/>
+      <c r="AY27" s="24"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -56893,8 +57679,18 @@
         <f t="shared" si="19"/>
         <v>Gizi Baik</v>
       </c>
+      <c r="AS28" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="28"/>
+      <c r="AX28" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="28"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -57008,8 +57804,32 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS29" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT29" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="AU29" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV29" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="AX29" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AY29" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="AZ29" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="BA29" s="29" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -57123,8 +57943,40 @@
         <f t="shared" si="19"/>
         <v>Gizi Lebih</v>
       </c>
+      <c r="AS30" s="27">
+        <f>AS10/(AS10+AV10)</f>
+        <v>0.875</v>
+      </c>
+      <c r="AT30" s="27">
+        <f>AS14/(AS14+AV14)</f>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="AU30" s="27">
+        <f>AS18/(AS18+AV18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AV30" s="25">
+        <f>(AS30+AT30+AU30)/3</f>
+        <v>0.562037037037037</v>
+      </c>
+      <c r="AX30" s="27">
+        <f>AX10/(AX10+BA10)</f>
+        <v>0.875</v>
+      </c>
+      <c r="AY30" s="27">
+        <f>AX14/(AX14+BA14)</f>
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="AZ30" s="27">
+        <f>AX18/(AX18+BA18)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="BA30" s="25">
+        <f>(AX30+AY30+AZ30)/3</f>
+        <v>0.54933862433862435</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -57239,7 +58091,7 @@
         <v>Gizi Lebih</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -76999,23 +77851,23 @@
         <v>194</v>
       </c>
       <c r="AM203">
-        <f t="shared" ref="AM203:AM256" si="75">SQRT((C195-$AK$5)^2+(D195-$AL$5)^2+(E195-$AM$5)^2+(F195-$AN$5)^2)</f>
+        <f t="shared" ref="AM203:AM255" si="75">SQRT((C195-$AK$5)^2+(D195-$AL$5)^2+(E195-$AM$5)^2+(F195-$AN$5)^2)</f>
         <v>27.496545237538477</v>
       </c>
       <c r="AN203">
-        <f t="shared" ref="AN203:AN256" si="76">SQRT((C195-$AK$6)^2+(D195-$AL$6)^2+(E195-$AM$6)^2+(F195-$AN$6)^2)</f>
+        <f t="shared" ref="AN203:AN255" si="76">SQRT((C195-$AK$6)^2+(D195-$AL$6)^2+(E195-$AM$6)^2+(F195-$AN$6)^2)</f>
         <v>3.5071355833500384</v>
       </c>
       <c r="AO203">
-        <f t="shared" ref="AO203:AO256" si="77">SQRT((C195-$AK$7)^2+(D195-$AL$7)^2+(E195-$AM$7)^2+(F195-$AN$7)^2)</f>
+        <f t="shared" ref="AO203:AO255" si="77">SQRT((C195-$AK$7)^2+(D195-$AL$7)^2+(E195-$AM$7)^2+(F195-$AN$7)^2)</f>
         <v>16.315330214249414</v>
       </c>
       <c r="AP203">
-        <f t="shared" ref="AP203:AP256" si="78">MIN(AM203:AO203)</f>
+        <f t="shared" ref="AP203:AP255" si="78">MIN(AM203:AO203)</f>
         <v>3.5071355833500384</v>
       </c>
       <c r="AQ203" t="str">
-        <f t="shared" ref="AQ203:AQ256" si="79">IF(AM203=AP203,$J$10,IF(AN203=AP203,$J$11,IF(AO203=AP203,$J$12,"")))</f>
+        <f t="shared" ref="AQ203:AQ255" si="79">IF(AM203=AP203,$J$10,IF(AN203=AP203,$J$11,IF(AO203=AP203,$J$12,"")))</f>
         <v>Gizi Baik</v>
       </c>
     </row>

--- a/machine-learning/data scaling.xlsx
+++ b/machine-learning/data scaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder Kuliah ni\SKRIPSI SEMESTER 8\project skirpsi\end-to-end-ML-status-gizi-skripsi\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3F44A3-1854-46F6-9D50-D287CEBB7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875539B-D25A-4F09-B07B-9EB621EAC5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="1" xr2:uid="{97875038-B768-4926-A3F7-3854A156551E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97875038-B768-4926-A3F7-3854A156551E}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Means" sheetId="1" r:id="rId1"/>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F947D4-4787-44C4-BF8E-B0A9649AC43A}">
   <dimension ref="A1:CK255"/>
   <sheetViews>
-    <sheetView topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CK30" sqref="CK30"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK18" sqref="CK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54606,8 +54606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82065DC9-375C-46B7-BDE1-10D0C7852F6D}">
   <dimension ref="A1:BA263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+    <sheetView topLeftCell="AR4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ33" sqref="AZ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
